--- a/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>764414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>736278</v>
+        <v>736758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>791395</v>
+        <v>793651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7409102073247228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7136389243113019</v>
+        <v>0.7141044811576117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7670613763460586</v>
+        <v>0.7692479240340914</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>997</v>
@@ -765,19 +765,19 @@
         <v>1024877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>994526</v>
+        <v>994950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1052540</v>
+        <v>1051976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7793071529298599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7562285872484614</v>
+        <v>0.7565510379945455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8003421300200115</v>
+        <v>0.7999133018486332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1762</v>
@@ -786,19 +786,19 @@
         <v>1789290</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1751714</v>
+        <v>1750746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1828291</v>
+        <v>1831433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7624269726877081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7464154401825315</v>
+        <v>0.7460028117515518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7790453182433065</v>
+        <v>0.7803843365153382</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>267309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240328</v>
+        <v>238072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295445</v>
+        <v>294965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2590897926752772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2329386236539414</v>
+        <v>0.2307520759659087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2863610756886982</v>
+        <v>0.2858955188423883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -836,19 +836,19 @@
         <v>290236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262573</v>
+        <v>263137</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>320587</v>
+        <v>320163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2206928470701402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1996578699799885</v>
+        <v>0.2000866981513666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2437714127515386</v>
+        <v>0.2434489620054544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>567</v>
@@ -857,19 +857,19 @@
         <v>557545</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518544</v>
+        <v>515402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>595121</v>
+        <v>596089</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2375730273122919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2209546817566936</v>
+        <v>0.2196156634846617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2535845598174685</v>
+        <v>0.2539971882484481</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1094678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1055221</v>
+        <v>1050489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1135580</v>
+        <v>1128172</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6464330926935906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6231327952080123</v>
+        <v>0.6203381640205513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6705864548538502</v>
+        <v>0.6662119577329098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1031</v>
@@ -982,19 +982,19 @@
         <v>1065588</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1026495</v>
+        <v>1029322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1099731</v>
+        <v>1099723</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.672065167926113</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6474097935065991</v>
+        <v>0.6491923164600139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6935991281842403</v>
+        <v>0.6935943317966364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2106</v>
@@ -1003,19 +1003,19 @@
         <v>2160266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2101917</v>
+        <v>2107369</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2211055</v>
+        <v>2220016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6588275106756089</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6410325144152215</v>
+        <v>0.6426954407984697</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.674316848952632</v>
+        <v>0.6770498527281366</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>598735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>557833</v>
+        <v>565241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>638192</v>
+        <v>642924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3535669073064094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3294135451461501</v>
+        <v>0.3337880422670904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3768672047919878</v>
+        <v>0.3796618359794487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>521</v>
@@ -1053,19 +1053,19 @@
         <v>519954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485811</v>
+        <v>485819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>559047</v>
+        <v>556220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.327934832073887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3064008718157598</v>
+        <v>0.3064056682033636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3525902064934009</v>
+        <v>0.3508076835399862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1095</v>
@@ -1074,19 +1074,19 @@
         <v>1118689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1067900</v>
+        <v>1058939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1177038</v>
+        <v>1171586</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3411724893243911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3256831510473681</v>
+        <v>0.3229501472718634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3589674855847788</v>
+        <v>0.3573045592015303</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>366774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>343004</v>
+        <v>345290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>387859</v>
+        <v>390613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6683534420053775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6250384176946225</v>
+        <v>0.6292032006219743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.706774665060777</v>
+        <v>0.7117938543585507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>281</v>
@@ -1199,19 +1199,19 @@
         <v>298247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>276815</v>
+        <v>275033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>319395</v>
+        <v>320869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6260270504107348</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.581040906078513</v>
+        <v>0.5773008970372782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.670416740663196</v>
+        <v>0.6735112976621752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>631</v>
@@ -1220,19 +1220,19 @@
         <v>665021</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>636974</v>
+        <v>633667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>698813</v>
+        <v>695721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6486840313377564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.621326292888594</v>
+        <v>0.61810032193277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6816454195802496</v>
+        <v>0.6786300225999363</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>181999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160914</v>
+        <v>158160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205769</v>
+        <v>203483</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3316465579946226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.293225334939223</v>
+        <v>0.2882061456414494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3749615823053775</v>
+        <v>0.3707967993780257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -1270,19 +1270,19 @@
         <v>178165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157017</v>
+        <v>155543</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199597</v>
+        <v>201379</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3739729495892651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.329583259336804</v>
+        <v>0.3264887023378248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4189590939214869</v>
+        <v>0.4226991029627219</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>346</v>
@@ -1291,19 +1291,19 @@
         <v>360164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>326372</v>
+        <v>329464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>388211</v>
+        <v>391518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3513159686622436</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3183545804197505</v>
+        <v>0.3213699774000637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.378673707111406</v>
+        <v>0.38189967806723</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2225867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.679880420602902</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2309</v>
@@ -1416,19 +1416,19 @@
         <v>2388711</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7073331137246123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4499</v>
@@ -1437,19 +1437,19 @@
         <v>4614577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6938196647783316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1048042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>988241</v>
+        <v>992889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1101262</v>
+        <v>1098019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3201195793970981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3018534017046076</v>
+        <v>0.3032733723366418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3363754129402733</v>
+        <v>0.3353846551848466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>986</v>
@@ -1487,19 +1487,19 @@
         <v>988355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>934551</v>
+        <v>935393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1040397</v>
+        <v>1034535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2926668862753878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2767345589775679</v>
+        <v>0.2769838651961669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3080771595266153</v>
+        <v>0.3063414877462515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2008</v>
@@ -1508,19 +1508,19 @@
         <v>2036398</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1963114</v>
+        <v>1958083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2116387</v>
+        <v>2112153</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3061803352216684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2951619040974974</v>
+        <v>0.2944053388140236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3182070825583785</v>
+        <v>0.3175704379511138</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>678227</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>651322</v>
+        <v>644998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>705430</v>
+        <v>706179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7051954249822516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6772211424773601</v>
+        <v>0.6706459430362498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7334801344264694</v>
+        <v>0.7342596135692969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>940</v>
@@ -1872,19 +1872,19 @@
         <v>1008217</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>976015</v>
+        <v>975607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1038442</v>
+        <v>1041931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7588743894336464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7346366324139239</v>
+        <v>0.7343294226066029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7816246510819678</v>
+        <v>0.7842509325227348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1565</v>
@@ -1893,19 +1893,19 @@
         <v>1686444</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1639429</v>
+        <v>1641674</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1725202</v>
+        <v>1726599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7363334493864508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7158058341093274</v>
+        <v>0.7167861243507938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7532559372326123</v>
+        <v>0.7538660578017189</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>283530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256327</v>
+        <v>255578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310435</v>
+        <v>316759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2948045750177484</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2665198655735307</v>
+        <v>0.265740386430703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.32277885752264</v>
+        <v>0.3293540569637503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -1943,19 +1943,19 @@
         <v>320352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290127</v>
+        <v>286638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>352554</v>
+        <v>352962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2411256105663536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2183753489180318</v>
+        <v>0.215749067477265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.265363367586076</v>
+        <v>0.2656705773933969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>569</v>
@@ -1964,19 +1964,19 @@
         <v>603882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565124</v>
+        <v>563727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>650897</v>
+        <v>648652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2636665506135492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2467440627673877</v>
+        <v>0.2461339421982812</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2841941658906728</v>
+        <v>0.2832138756492065</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1268722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1223431</v>
+        <v>1227780</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1312102</v>
+        <v>1315768</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6496822312544988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6264897935749342</v>
+        <v>0.6287166539177903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6718959433878651</v>
+        <v>0.6737733755870299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1189</v>
@@ -2089,19 +2089,19 @@
         <v>1285616</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1251179</v>
+        <v>1251230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1321478</v>
+        <v>1322604</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7341924167964821</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7145260547158174</v>
+        <v>0.7145548637518214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7546720276205108</v>
+        <v>0.7553151513611981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2381</v>
@@ -2110,19 +2110,19 @@
         <v>2554339</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2494387</v>
+        <v>2496567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2609278</v>
+        <v>2609486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6896354474592721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6734493371684859</v>
+        <v>0.6740377861765758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7044682662804838</v>
+        <v>0.7045245040020304</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>684113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>640733</v>
+        <v>637067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>729404</v>
+        <v>725055</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3503177687455012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3281040566121348</v>
+        <v>0.32622662441297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3735102064250657</v>
+        <v>0.3712833460822094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>440</v>
@@ -2160,19 +2160,19 @@
         <v>465446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>429584</v>
+        <v>428458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499883</v>
+        <v>499832</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2658075832035179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2453279723794889</v>
+        <v>0.244684848638802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2854739452841826</v>
+        <v>0.2854451362481786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1094</v>
@@ -2181,19 +2181,19 @@
         <v>1149558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1094619</v>
+        <v>1094411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1209510</v>
+        <v>1207330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3103645525407279</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2955317337195162</v>
+        <v>0.2954754959979697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3265506628315141</v>
+        <v>0.3259622138234241</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>302326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>279604</v>
+        <v>281582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>324608</v>
+        <v>323611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6332634344555993</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5856707274756141</v>
+        <v>0.5898121106871607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6799360206305344</v>
+        <v>0.6778481177702894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>262</v>
@@ -2306,19 +2306,19 @@
         <v>292464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>269819</v>
+        <v>270376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>313149</v>
+        <v>313987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6434539267111642</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5936334120019086</v>
+        <v>0.5948580514489377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6889628136251914</v>
+        <v>0.690807542731443</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>537</v>
@@ -2327,19 +2327,19 @@
         <v>594790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563851</v>
+        <v>563803</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>625336</v>
+        <v>625608</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.638233546743967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6050353394651892</v>
+        <v>0.6049838675291737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6710110289405036</v>
+        <v>0.671302680030202</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>175083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152801</v>
+        <v>153798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>197805</v>
+        <v>195827</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3667365655444008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3200639793694658</v>
+        <v>0.3221518822297106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.414329272524386</v>
+        <v>0.4101878893128396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -2377,19 +2377,19 @@
         <v>162058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141373</v>
+        <v>140535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184703</v>
+        <v>184146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3565460732888358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3110371863748089</v>
+        <v>0.309192457268557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4063665879980916</v>
+        <v>0.4051419485510623</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>305</v>
@@ -2398,19 +2398,19 @@
         <v>337141</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>306595</v>
+        <v>306323</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>368080</v>
+        <v>368128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.361766453256033</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3289889710594965</v>
+        <v>0.3286973199697981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3949646605348109</v>
+        <v>0.3950161324708265</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>2249274</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2186249</v>
+        <v>2189328</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2306763</v>
+        <v>2303277</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6631113885035733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6445310000217981</v>
+        <v>0.6454385470605014</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6800597405706358</v>
+        <v>0.6790322620000846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2391</v>
@@ -2523,19 +2523,19 @@
         <v>2586297</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2531948</v>
+        <v>2531866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2637893</v>
+        <v>2639193</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7318012088045789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7164229258793766</v>
+        <v>0.7163997923351653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7464002130905069</v>
+        <v>0.7467681112679536</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4483</v>
@@ -2544,19 +2544,19 @@
         <v>4835572</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4744758</v>
+        <v>4758372</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4906050</v>
+        <v>4913583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6981611968316522</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6850494554022948</v>
+        <v>0.6870150038603813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7083368754435114</v>
+        <v>0.7094244852602515</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1142726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1085237</v>
+        <v>1088723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1205751</v>
+        <v>1202672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3368886114964267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3199402594293642</v>
+        <v>0.3209677379999155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3554689999782019</v>
+        <v>0.3545614529394985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>885</v>
@@ -2594,19 +2594,19 @@
         <v>947856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>896260</v>
+        <v>894960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1002205</v>
+        <v>1002287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2681987911954211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2535997869094932</v>
+        <v>0.2532318887320466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2835770741206236</v>
+        <v>0.2836002076648351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1968</v>
@@ -2615,19 +2615,19 @@
         <v>2090582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2020104</v>
+        <v>2012571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2181396</v>
+        <v>2167782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3018388031683477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2916631245564886</v>
+        <v>0.2905755147397488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3149505445977057</v>
+        <v>0.312984996139619</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>595175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>569637</v>
+        <v>570447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>616272</v>
+        <v>615075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7910569159076449</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7571135760739487</v>
+        <v>0.7581898682371716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8190970960784657</v>
+        <v>0.8175053501146518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>750</v>
@@ -2979,19 +2979,19 @@
         <v>838446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>812962</v>
+        <v>814174</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>860891</v>
+        <v>860622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8494929209088055</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8236726040284305</v>
+        <v>0.8249010119378419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8722332403097153</v>
+        <v>0.8719606860833408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1352</v>
@@ -3000,19 +3000,19 @@
         <v>1433621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1402103</v>
+        <v>1399250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1464011</v>
+        <v>1463349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8242159950157375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8060961303831596</v>
+        <v>0.8044558814699007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8416881364104745</v>
+        <v>0.8413074799649504</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>157205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136108</v>
+        <v>137305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182743</v>
+        <v>181933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2089430840923551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1809029039215344</v>
+        <v>0.1824946498853482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2428864239260513</v>
+        <v>0.2418101317628284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -3050,19 +3050,19 @@
         <v>148550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126105</v>
+        <v>126374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174034</v>
+        <v>172822</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1505070790911946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1277667596902847</v>
+        <v>0.1280393139166595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1763273959715695</v>
+        <v>0.1750989880621582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -3071,19 +3071,19 @@
         <v>305754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>275364</v>
+        <v>276026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>337272</v>
+        <v>340125</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1757840049842625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1583118635895252</v>
+        <v>0.1586925200350497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1939038696168403</v>
+        <v>0.1955441185301</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1658595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1622357</v>
+        <v>1616940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1697913</v>
+        <v>1690256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.804037757394315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7864708738779395</v>
+        <v>0.7838449351108321</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8230980257019124</v>
+        <v>0.8193861678713261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1570</v>
@@ -3196,19 +3196,19 @@
         <v>1645758</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1609701</v>
+        <v>1614485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1680182</v>
+        <v>1680140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8321517260734563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.813920141794348</v>
+        <v>0.816339181543929</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8495574888986475</v>
+        <v>0.8495363465619349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3130</v>
@@ -3217,19 +3217,19 @@
         <v>3304352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3258255</v>
+        <v>3251755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3354191</v>
+        <v>3357396</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8177986189985401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8063899820403059</v>
+        <v>0.8047813272965862</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8301333140291336</v>
+        <v>0.8309266401596872</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>404237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364919</v>
+        <v>372576</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440475</v>
+        <v>445892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.195962242605685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1769019742980875</v>
+        <v>0.1806138321286737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2135291261220603</v>
+        <v>0.2161550648891674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>328</v>
@@ -3267,19 +3267,19 @@
         <v>331956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297532</v>
+        <v>297574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368013</v>
+        <v>363229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1678482739265436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1504425111013523</v>
+        <v>0.1504636534380649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1860798582056519</v>
+        <v>0.1836608184560709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>709</v>
@@ -3288,19 +3288,19 @@
         <v>736193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686354</v>
+        <v>683149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>782290</v>
+        <v>788790</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1822013810014599</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1698666859708665</v>
+        <v>0.1690733598403129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1936100179596942</v>
+        <v>0.1952186727034137</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>402174</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>381023</v>
+        <v>381295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>422074</v>
+        <v>423816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7379263048059911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6991192487390577</v>
+        <v>0.6996175336288418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7744410513106635</v>
+        <v>0.7776378044981503</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>377</v>
@@ -3413,19 +3413,19 @@
         <v>395514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>374025</v>
+        <v>375007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>415924</v>
+        <v>416228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7263410834704179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6868785860848196</v>
+        <v>0.6886822474993325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7638238645833693</v>
+        <v>0.7643810006827071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>743</v>
@@ -3434,19 +3434,19 @@
         <v>797687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>769574</v>
+        <v>764555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>825969</v>
+        <v>826459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7321362208729382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7063333796006043</v>
+        <v>0.7017262303460726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7580937313396419</v>
+        <v>0.7585435547397491</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>142831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122931</v>
+        <v>121189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163982</v>
+        <v>163710</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2620736951940089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2255589486893364</v>
+        <v>0.2223621955018501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3008807512609425</v>
+        <v>0.3003824663711585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -3484,19 +3484,19 @@
         <v>149015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128605</v>
+        <v>128301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170504</v>
+        <v>169522</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2736589165295821</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2361761354166307</v>
+        <v>0.2356189993172931</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3131214139151804</v>
+        <v>0.3113177525006676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>278</v>
@@ -3505,19 +3505,19 @@
         <v>291847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>263565</v>
+        <v>263075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>319960</v>
+        <v>324979</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2678637791270619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.241906268660358</v>
+        <v>0.2414564452602508</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2936666203993956</v>
+        <v>0.2982737696539274</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>2655943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2608452</v>
+        <v>2605191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2699116</v>
+        <v>2700102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7904084044594327</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7762752128763208</v>
+        <v>0.7753045331691363</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8032566445113388</v>
+        <v>0.8035500845900916</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2697</v>
@@ -3630,19 +3630,19 @@
         <v>2879718</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2830929</v>
+        <v>2834011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2921965</v>
+        <v>2928437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.82061038679176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.806707239344628</v>
+        <v>0.8075855140677384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8326490995851855</v>
+        <v>0.8344934199380704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5225</v>
@@ -3651,19 +3651,19 @@
         <v>5535661</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5463841</v>
+        <v>5468116</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5596303</v>
+        <v>5604874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8058369902952133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7953820378637102</v>
+        <v>0.7960043062841959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8146647968154024</v>
+        <v>0.8159124325522089</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>704273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>661100</v>
+        <v>660114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>751764</v>
+        <v>755025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2095915955405672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1967433554886612</v>
+        <v>0.1964499154099084</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2237247871236792</v>
+        <v>0.2246954668308638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>608</v>
@@ -3701,19 +3701,19 @@
         <v>629521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587274</v>
+        <v>580802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>678310</v>
+        <v>675228</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.17938961320824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1673509004148146</v>
+        <v>0.1655065800619297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.193292760655372</v>
+        <v>0.1924144859322617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1280</v>
@@ -3722,19 +3722,19 @@
         <v>1333794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1273152</v>
+        <v>1264581</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1405614</v>
+        <v>1401339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1941630097047867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1853352031845976</v>
+        <v>0.184087567447791</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2046179621362899</v>
+        <v>0.2039956937158042</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>376421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>353453</v>
+        <v>355704</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>398229</v>
+        <v>397752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6613483933753467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6209943234023444</v>
+        <v>0.6249503095610376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6996640240231123</v>
+        <v>0.698826511278716</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>992</v>
@@ -4086,19 +4086,19 @@
         <v>569337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>548596</v>
+        <v>550185</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>589145</v>
+        <v>589652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7085901660788705</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6827760362770271</v>
+        <v>0.6847539531222621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7332429871490683</v>
+        <v>0.733873070732219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1454</v>
@@ -4107,19 +4107,19 @@
         <v>945759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>914575</v>
+        <v>913971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>975398</v>
+        <v>974652</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6890012826706514</v>
+        <v>0.6890012826706515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6662830388310832</v>
+        <v>0.6658431738794958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.710594027349848</v>
+        <v>0.7100506069218969</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>192751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170943</v>
+        <v>171420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215719</v>
+        <v>213468</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3386516066246534</v>
+        <v>0.3386516066246533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3003359759768875</v>
+        <v>0.3011734887212841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3790056765976557</v>
+        <v>0.3750496904389625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -4157,19 +4157,19 @@
         <v>234142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214334</v>
+        <v>213827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254883</v>
+        <v>253294</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2914098339211296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2667570128509317</v>
+        <v>0.266126929267781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3172239637229725</v>
+        <v>0.315246046877738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -4178,19 +4178,19 @@
         <v>426893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>397254</v>
+        <v>398000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>458077</v>
+        <v>458681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3109987173293485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2894059726501519</v>
+        <v>0.2899493930781031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3337169611689168</v>
+        <v>0.334156826120504</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1383791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1328244</v>
+        <v>1327307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1438810</v>
+        <v>1438799</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6245537464902243</v>
+        <v>0.6245537464902242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5994834774971125</v>
+        <v>0.5990602104939553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6493855025366457</v>
+        <v>0.6493805171803261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1919</v>
@@ -4303,19 +4303,19 @@
         <v>1374046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1330357</v>
+        <v>1331801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1413756</v>
+        <v>1418698</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6407417587274672</v>
+        <v>0.6407417587274673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6203691548047471</v>
+        <v>0.6210421257826976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6592591615042575</v>
+        <v>0.6615637404062563</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3220</v>
@@ -4324,19 +4324,19 @@
         <v>2757837</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2682863</v>
+        <v>2694291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2832330</v>
+        <v>2827604</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6325156029438519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6153202673154266</v>
+        <v>0.617941237309188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6496007128240172</v>
+        <v>0.6485168510604271</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>831857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>776838</v>
+        <v>776849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>887404</v>
+        <v>888341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3754462535097757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3506144974633547</v>
+        <v>0.350619482819674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4005165225028874</v>
+        <v>0.4009397895060449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>969</v>
@@ -4374,19 +4374,19 @@
         <v>770415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>730705</v>
+        <v>725763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814104</v>
+        <v>812660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3592582412725326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3407408384957424</v>
+        <v>0.3384362595937437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3796308451952528</v>
+        <v>0.3789578742173024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1648</v>
@@ -4395,19 +4395,19 @@
         <v>1602272</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1527779</v>
+        <v>1532505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1677246</v>
+        <v>1665818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.367484397056148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3503992871759827</v>
+        <v>0.3514831489395727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3846797326845732</v>
+        <v>0.382058762690812</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>415344</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>387641</v>
+        <v>388357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444050</v>
+        <v>441479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5922957622724805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5527895466496738</v>
+        <v>0.5538113261467366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6332304164781379</v>
+        <v>0.6295650394570872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>583</v>
@@ -4520,19 +4520,19 @@
         <v>406122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>381764</v>
+        <v>382130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>431921</v>
+        <v>429479</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5565133512146883</v>
+        <v>0.556513351214688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.523135203240416</v>
+        <v>0.5236371565474933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5918649375624651</v>
+        <v>0.5885196411937212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>990</v>
@@ -4541,19 +4541,19 @@
         <v>821467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>783483</v>
+        <v>782221</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>856732</v>
+        <v>861688</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5740480190782284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5475046460289364</v>
+        <v>0.546622540914393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5986918806750305</v>
+        <v>0.6021548195063118</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>285901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257195</v>
+        <v>259766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313604</v>
+        <v>312888</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4077042377275197</v>
+        <v>0.4077042377275196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3667695835218617</v>
+        <v>0.3704349605429126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4472104533503261</v>
+        <v>0.4461886738532634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -4591,19 +4591,19 @@
         <v>323640</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297841</v>
+        <v>300283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347998</v>
+        <v>347632</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.443486648785312</v>
+        <v>0.4434866487853118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4081350624375349</v>
+        <v>0.4114803588062786</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4768647967595839</v>
+        <v>0.4763628434525067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>678</v>
@@ -4612,19 +4612,19 @@
         <v>609540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>574275</v>
+        <v>569319</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647524</v>
+        <v>648786</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4259519809217716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4013081193249693</v>
+        <v>0.3978451804936881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4524953539710633</v>
+        <v>0.4533774590856069</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>2175557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2107750</v>
+        <v>2113116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2237801</v>
+        <v>2244451</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6240723321770103</v>
+        <v>0.6240723321770101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6046214883044527</v>
+        <v>0.6061609444442159</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6419274562451351</v>
+        <v>0.6438351856041258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3494</v>
@@ -4737,19 +4737,19 @@
         <v>2349505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2298803</v>
+        <v>2295539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2406394</v>
+        <v>2400628</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6388514766468327</v>
+        <v>0.6388514766468328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6250649331141652</v>
+        <v>0.6241774516132778</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6543200629278618</v>
+        <v>0.6527523078559274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5664</v>
@@ -4758,19 +4758,19 @@
         <v>4525062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4439148</v>
+        <v>4437885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4608313</v>
+        <v>4607232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6316595821231439</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6196666690297704</v>
+        <v>0.6194903919848739</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6432806369045259</v>
+        <v>0.6431297634197444</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1310508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1248264</v>
+        <v>1241614</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1378315</v>
+        <v>1372949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3759276678229898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3580725437548647</v>
+        <v>0.3561648143958741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3953785116955471</v>
+        <v>0.393839055555784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1785</v>
@@ -4808,19 +4808,19 @@
         <v>1328197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1271308</v>
+        <v>1277074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1378899</v>
+        <v>1382163</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3611485233531672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3456799370721381</v>
+        <v>0.3472476921440727</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3749350668858346</v>
+        <v>0.3758225483867224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2945</v>
@@ -4829,19 +4829,19 @@
         <v>2638705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2555454</v>
+        <v>2556535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2724619</v>
+        <v>2725882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3683404178768562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3567193630954741</v>
+        <v>0.3568702365802557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3803333309702299</v>
+        <v>0.3805096080151262</v>
       </c>
     </row>
     <row r="15">
